--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -62,7 +62,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>23</t>
+    <t>23.1</t>
   </si>
   <si>
     <t>41</t>
@@ -390,7 +390,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -398,34 +398,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2571,273 +2572,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4035CE-3922-4176-AF16-5E3B886520D5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ABF152A-8A3A-49DC-993E-8D203AA4F1EE}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7462FBB9-A731-42EC-BD21-5BBAFADA201D}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -327,6 +342,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -415,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -427,6 +445,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,265 +467,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -728,1845 +789,2124 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,70 +32,73 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato morto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato morto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -790,2123 +793,2123 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
@@ -68,6 +68,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -347,7 +350,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -448,7 +451,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -568,13 +571,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -591,7 +594,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -614,7 +617,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -637,13 +640,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -660,7 +663,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -706,7 +709,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -729,7 +732,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -752,7 +755,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -774,2142 +777,2165 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>33</v>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1445,19 +1451,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1474,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1520,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1543,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1589,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1954,16 +1960,16 @@
         <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,7 +1983,7 @@
         <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
@@ -1986,7 +1992,7 @@
         <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1997,10 +2003,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2009,7 +2015,7 @@
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2089,10 +2095,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
@@ -2101,7 +2107,7 @@
         <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2112,10 +2118,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
@@ -2124,7 +2130,7 @@
         <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2158,7 +2164,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>101</v>
@@ -2167,10 +2173,10 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2273,10 +2279,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2285,7 +2291,7 @@
         <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2296,10 +2302,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2308,7 +2314,7 @@
         <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2342,599 +2348,668 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -356,7 +356,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -457,7 +460,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2903,7 +2906,7 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
@@ -2923,19 +2926,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2949,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>24</v>
@@ -2969,10 +2972,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -2981,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2992,10 +2995,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3004,7 +3007,7 @@
         <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2906,7 +2903,7 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
@@ -2926,19 +2923,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2946,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>24</v>
@@ -2972,10 +2969,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -2984,7 +2981,7 @@
         <v>32</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2995,10 +2992,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3007,7 +3004,7 @@
         <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2903,7 +2906,7 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
@@ -2923,19 +2926,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2949,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>24</v>
@@ -2969,10 +2972,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -2981,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2992,10 +2995,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3004,7 +3007,7 @@
         <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,36 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -448,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -458,7 +488,7 @@
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2006,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2059,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2082,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2105,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2151,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2220,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2266,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2289,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2312,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2335,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2358,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2381,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2404,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2397,622 +2427,829 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E110" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G110" s="2" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E111" s="2" t="s">
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -2479,7 +2479,7 @@
         <v>115</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>105</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -212,13 +218,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1507,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1996,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,10 +2203,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2209,7 +2215,7 @@
         <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2272,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,10 +2318,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
@@ -2324,7 +2330,7 @@
         <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>52</v>
@@ -2344,7 +2350,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>53</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2479,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2548,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,10 +2594,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2600,7 +2606,7 @@
         <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2611,10 +2617,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2623,7 +2629,7 @@
         <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2634,622 +2640,714 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="2" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,10 +2255,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2261,7 +2267,7 @@
         <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2364,10 +2370,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
@@ -2376,7 +2382,7 @@
         <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2387,10 +2393,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
@@ -2399,7 +2405,7 @@
         <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2433,7 +2439,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>115</v>
@@ -2442,10 +2448,10 @@
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2577,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2600,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2623,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2663,10 +2669,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2675,7 +2681,7 @@
         <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2686,10 +2692,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2698,7 +2704,7 @@
         <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2709,645 +2715,714 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1962,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2054,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2215,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2301,10 +2307,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2313,7 +2319,7 @@
         <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2399,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2416,10 +2422,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
@@ -2428,7 +2434,7 @@
         <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2439,10 +2445,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
@@ -2451,7 +2457,7 @@
         <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2485,7 +2491,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>117</v>
@@ -2494,10 +2500,10 @@
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2629,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2652,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2675,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2715,10 +2721,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2727,7 +2733,7 @@
         <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2738,10 +2744,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2750,7 +2756,7 @@
         <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2761,668 +2767,737 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -212,9 +302,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -302,6 +389,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -347,9 +443,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -407,9 +500,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -438,6 +528,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -496,16 +592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -976,22 +1072,22 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -999,22 +1095,22 @@
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1022,22 +1118,22 @@
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1045,22 +1141,22 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1068,22 +1164,22 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1091,22 +1187,22 @@
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -1114,22 +1210,22 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1137,22 +1233,22 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1160,22 +1256,22 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1183,22 +1279,22 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -1206,22 +1302,22 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1229,22 +1325,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -1252,39 +1348,39 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1295,19 +1391,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1318,19 +1414,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1341,19 +1437,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1364,19 +1460,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1387,19 +1483,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1410,19 +1506,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1433,19 +1529,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1456,19 +1552,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1575,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1502,19 +1598,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1621,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1644,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1667,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1690,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1713,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1736,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1759,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1782,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1805,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1828,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1851,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1874,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1897,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1920,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1943,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1966,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,617 +1989,617 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2610,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2656,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2679,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2702,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2725,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2748,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2771,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2794,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2817,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2840,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2863,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2886,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2813,617 +2909,617 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3434,22 +3530,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3457,19 +3553,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3480,24 +3576,944 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -592,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2314,7 +2314,7 @@
         <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2323,7 +2323,7 @@
         <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,7 +2337,7 @@
         <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2346,7 +2346,7 @@
         <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,7 +2360,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2369,7 +2369,7 @@
         <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,7 +2383,7 @@
         <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2392,7 +2392,7 @@
         <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,7 +2406,7 @@
         <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2415,7 +2415,7 @@
         <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,7 +2429,7 @@
         <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2438,7 +2438,7 @@
         <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,7 +2452,7 @@
         <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2461,7 +2461,7 @@
         <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,7 +2475,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2484,7 +2484,7 @@
         <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,7 +2498,7 @@
         <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2507,7 +2507,7 @@
         <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,7 +2521,7 @@
         <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2530,7 +2530,7 @@
         <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,7 +2544,7 @@
         <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2553,7 +2553,7 @@
         <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,25 +2564,25 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -2590,16 +2590,16 @@
         <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,16 +2613,16 @@
         <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,16 +2636,16 @@
         <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,7 +2659,7 @@
         <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2668,7 +2668,7 @@
         <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,7 +2682,7 @@
         <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2691,7 +2691,7 @@
         <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,7 +2705,7 @@
         <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2714,7 +2714,7 @@
         <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,16 +2728,16 @@
         <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,7 +2751,7 @@
         <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2760,7 +2760,7 @@
         <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2783,7 +2783,7 @@
         <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,7 +2797,7 @@
         <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2806,7 +2806,7 @@
         <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,7 +2820,7 @@
         <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2829,7 +2829,7 @@
         <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,16 +2843,16 @@
         <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,7 +2866,7 @@
         <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -2875,7 +2875,7 @@
         <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,16 +2889,16 @@
         <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,7 +2912,7 @@
         <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2921,7 +2921,7 @@
         <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,7 +2935,7 @@
         <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2944,7 +2944,7 @@
         <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,7 +2958,7 @@
         <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2967,7 +2967,7 @@
         <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,7 +2981,7 @@
         <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2990,7 +2990,7 @@
         <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,7 +3004,7 @@
         <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3013,7 +3013,7 @@
         <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,7 +3027,7 @@
         <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3036,7 +3036,7 @@
         <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,7 +3050,7 @@
         <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3059,7 +3059,7 @@
         <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,7 +3073,7 @@
         <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3082,7 +3082,7 @@
         <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,16 +3096,16 @@
         <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3119,7 +3119,7 @@
         <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -3128,7 +3128,7 @@
         <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3142,7 +3142,7 @@
         <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3151,7 +3151,7 @@
         <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3188,7 +3188,7 @@
         <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3197,7 +3197,7 @@
         <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3211,7 +3211,7 @@
         <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3220,7 +3220,7 @@
         <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3234,7 +3234,7 @@
         <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3243,7 +3243,7 @@
         <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3257,7 +3257,7 @@
         <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3266,7 +3266,7 @@
         <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3277,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3303,16 +3303,16 @@
         <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3326,16 +3326,16 @@
         <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3349,7 +3349,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3358,7 +3358,7 @@
         <v>65</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3372,16 +3372,16 @@
         <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3395,16 +3395,16 @@
         <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3418,7 +3418,7 @@
         <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3427,7 +3427,7 @@
         <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3441,16 +3441,16 @@
         <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3464,7 +3464,7 @@
         <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3473,7 +3473,7 @@
         <v>65</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3487,16 +3487,16 @@
         <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3510,7 +3510,7 @@
         <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
@@ -3519,7 +3519,7 @@
         <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3533,16 +3533,16 @@
         <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3556,7 +3556,7 @@
         <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3565,7 +3565,7 @@
         <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3579,7 +3579,7 @@
         <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3588,7 +3588,7 @@
         <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3602,7 +3602,7 @@
         <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3611,7 +3611,7 @@
         <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3625,16 +3625,16 @@
         <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3648,16 +3648,16 @@
         <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3671,7 +3671,7 @@
         <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3680,7 +3680,7 @@
         <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3694,7 +3694,7 @@
         <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3703,7 +3703,7 @@
         <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3717,7 +3717,7 @@
         <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3726,7 +3726,7 @@
         <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3740,16 +3740,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3763,7 +3763,7 @@
         <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3772,7 +3772,7 @@
         <v>65</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3783,25 +3783,25 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
@@ -3809,19 +3809,19 @@
         <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>161</v>
@@ -3832,16 +3832,16 @@
         <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3855,16 +3855,16 @@
         <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3878,7 +3878,7 @@
         <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3887,7 +3887,7 @@
         <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3901,7 +3901,7 @@
         <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3910,7 +3910,7 @@
         <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3924,7 +3924,7 @@
         <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
@@ -3933,7 +3933,7 @@
         <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3947,16 +3947,16 @@
         <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3970,7 +3970,7 @@
         <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3979,10 +3979,10 @@
         <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>161</v>
@@ -3993,7 +3993,7 @@
         <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4002,10 +4002,10 @@
         <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>161</v>
@@ -4016,7 +4016,7 @@
         <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4025,10 +4025,10 @@
         <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>161</v>
@@ -4039,7 +4039,7 @@
         <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4048,7 +4048,7 @@
         <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>160</v>
@@ -4062,19 +4062,19 @@
         <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>161</v>
@@ -4085,7 +4085,7 @@
         <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
@@ -4094,7 +4094,7 @@
         <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4108,19 +4108,19 @@
         <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>161</v>
@@ -4131,7 +4131,7 @@
         <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4140,7 +4140,7 @@
         <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>160</v>
@@ -4154,7 +4154,7 @@
         <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4163,10 +4163,10 @@
         <v>159</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>161</v>
@@ -4177,7 +4177,7 @@
         <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4186,10 +4186,10 @@
         <v>159</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>161</v>
@@ -4200,7 +4200,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4209,10 +4209,10 @@
         <v>159</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>161</v>
@@ -4223,7 +4223,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4232,10 +4232,10 @@
         <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4255,10 +4255,10 @@
         <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>161</v>
@@ -4269,7 +4269,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4278,10 +4278,10 @@
         <v>159</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>161</v>
@@ -4292,7 +4292,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4301,7 +4301,7 @@
         <v>159</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>160</v>
@@ -4315,19 +4315,19 @@
         <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>161</v>
@@ -4338,7 +4338,7 @@
         <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
@@ -4347,7 +4347,7 @@
         <v>159</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4361,7 +4361,7 @@
         <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
@@ -4370,7 +4370,7 @@
         <v>159</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4381,25 +4381,25 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
@@ -4407,19 +4407,19 @@
         <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>34</v>
@@ -4430,19 +4430,19 @@
         <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>34</v>
@@ -4453,16 +4453,16 @@
         <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4476,44 +4476,21 @@
         <v>162</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -4065,7 +4065,7 @@
         <v>97</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>159</v>
@@ -4088,7 +4088,7 @@
         <v>99</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>159</v>
@@ -4097,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>161</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -592,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1647,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1656,7 +1668,7 @@
         <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1670,7 +1682,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1679,7 +1691,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1693,7 +1705,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1989,65 +2001,65 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2116,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2346,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,111 +2576,111 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3415,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3438,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3461,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3484,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3507,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3542,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3565,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3576,19 +3588,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3611,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3622,19 +3634,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3668,19 +3680,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3691,19 +3703,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3714,19 +3726,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3737,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3760,13 +3772,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>65</v>
@@ -3783,600 +3795,600 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165">
@@ -4384,22 +4396,22 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E165" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="166">
@@ -4407,22 +4419,22 @@
         <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G166" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
@@ -4430,22 +4442,22 @@
         <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168">
@@ -4453,22 +4465,22 @@
         <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169">
@@ -4476,21 +4488,205 @@
         <v>162</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>34</v>
       </c>
     </row>
